--- a/docs/Dictionary.xlsx
+++ b/docs/Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Code\Curricular\DataBase\AcademyDBMS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5EA302-70CF-455A-A2EA-1879C02D37F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28667D78-D86B-409B-AF70-7DD83D7FD99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entity!$A$1:$P$150</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Relationship!$A$1:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Relationship!$A$1:$Q$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="633">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1256,10 +1256,6 @@
   <si>
     <t>若为"在职"，注意Pdept状态变更后级联更新为"调整"，将Pdept更新为空，然后发送消息给负责人处理，结束后返回原状态
 更新为"离职"后收回所有用户修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ "可使用" | "已停用" ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2689,6 +2685,18 @@
   </si>
   <si>
     <t>方案个性课程学分要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prerequisite_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时插入表。若课程通过则拷贝至Prerequisite，且删除改记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ "可使用" | "调整中" | "已停用" ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2825,7 +2833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2885,11 +2893,21 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2900,9 +2918,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2914,16 +2934,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3215,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3275,20 +3289,20 @@
         <v>175</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>422</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3317,14 +3331,14 @@
         <v>25</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="18"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="3" t="s">
         <v>69</v>
       </c>
@@ -3347,14 +3361,14 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="18"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="3" t="s">
         <v>240</v>
       </c>
@@ -3362,7 +3376,7 @@
         <v>158</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -3377,14 +3391,14 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="18"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3406,21 +3420,21 @@
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="19"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>71</v>
       </c>
@@ -3447,14 +3461,14 @@
       <c r="K6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="L6" s="19"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>107</v>
       </c>
@@ -3472,19 +3486,19 @@
         <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="19"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>70</v>
       </c>
@@ -3507,14 +3521,14 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="19"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>139</v>
       </c>
@@ -3534,19 +3548,19 @@
         <v>22</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="19"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2" t="s">
         <v>241</v>
       </c>
@@ -3554,7 +3568,7 @@
         <v>159</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -3571,14 +3585,14 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="19"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3607,14 +3621,14 @@
         <v>25</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="L11" s="18"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
@@ -3641,14 +3655,14 @@
       <c r="K12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="18"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="3" t="s">
         <v>127</v>
       </c>
@@ -3669,14 +3683,14 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="18"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
@@ -3699,26 +3713,26 @@
         <v>153</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="18"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
@@ -3731,22 +3745,22 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="18"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
@@ -3759,22 +3773,22 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="18"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
@@ -3787,22 +3801,22 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="18"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
@@ -3815,22 +3829,22 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="18"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
@@ -3843,22 +3857,22 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="18"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>169</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -3868,21 +3882,21 @@
         <v>269</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>308</v>
+        <v>632</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="18"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="19" t="s">
         <v>136</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3904,21 +3918,21 @@
         <v>22</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="19"/>
+      <c r="L21" s="22"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2" t="s">
         <v>137</v>
       </c>
@@ -3945,14 +3959,14 @@
       <c r="K22" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L22" s="19"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2" t="s">
         <v>138</v>
       </c>
@@ -3960,7 +3974,7 @@
         <v>146</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
@@ -3975,14 +3989,14 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="19"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
         <v>147</v>
       </c>
@@ -4007,14 +4021,14 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="19"/>
+      <c r="L24" s="22"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>143</v>
       </c>
@@ -4032,19 +4046,19 @@
         <v>22</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="19"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="2" t="s">
         <v>242</v>
       </c>
@@ -4052,7 +4066,7 @@
         <v>160</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -4069,14 +4083,14 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="19"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="21" t="s">
         <v>80</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4103,14 +4117,14 @@
         <v>25</v>
       </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="18"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
         <v>243</v>
       </c>
@@ -4118,7 +4132,7 @@
         <v>161</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
@@ -4133,14 +4147,14 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="18"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4162,21 +4176,21 @@
         <v>22</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="L29" s="17"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="2" t="s">
         <v>108</v>
       </c>
@@ -4203,14 +4217,14 @@
       <c r="K30" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L30" s="17"/>
+      <c r="L30" s="19"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
         <v>166</v>
       </c>
@@ -4233,14 +4247,14 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="17"/>
+      <c r="L31" s="19"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>122</v>
       </c>
@@ -4248,7 +4262,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
@@ -4263,14 +4277,14 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="17"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="2" t="s">
         <v>244</v>
       </c>
@@ -4278,7 +4292,7 @@
         <v>162</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
@@ -4295,14 +4309,14 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="17"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4331,14 +4345,14 @@
         <v>25</v>
       </c>
       <c r="K34" s="3"/>
-      <c r="L34" s="18"/>
+      <c r="L34" s="21"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="3" t="s">
         <v>118</v>
       </c>
@@ -4363,16 +4377,16 @@
         <v>26</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="L35" s="18"/>
+        <v>570</v>
+      </c>
+      <c r="L35" s="21"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="3" t="s">
         <v>109</v>
       </c>
@@ -4397,14 +4411,14 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="18"/>
+      <c r="L36" s="21"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="3" t="s">
         <v>168</v>
       </c>
@@ -4429,14 +4443,14 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="18"/>
+      <c r="L37" s="21"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="3" t="s">
         <v>185</v>
       </c>
@@ -4457,14 +4471,14 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="18"/>
+      <c r="L38" s="21"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="3" t="s">
         <v>245</v>
       </c>
@@ -4472,7 +4486,7 @@
         <v>165</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
@@ -4489,14 +4503,14 @@
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="18"/>
+      <c r="L39" s="21"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="19" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4525,7 +4539,7 @@
         <v>25</v>
       </c>
       <c r="K40" s="2"/>
-      <c r="L40" s="17" t="s">
+      <c r="L40" s="19" t="s">
         <v>163</v>
       </c>
       <c r="M40" s="2"/>
@@ -4534,7 +4548,7 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="17"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="2" t="s">
         <v>92</v>
       </c>
@@ -4557,14 +4571,14 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="17"/>
+      <c r="L41" s="19"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="17"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="2" t="s">
         <v>121</v>
       </c>
@@ -4572,7 +4586,7 @@
         <v>105</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
@@ -4587,14 +4601,14 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="17"/>
+      <c r="L42" s="19"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="17"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="2" t="s">
         <v>93</v>
       </c>
@@ -4617,7 +4631,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="17"/>
+      <c r="L43" s="19"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -4625,16 +4639,16 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
@@ -4644,7 +4658,7 @@
         <v>22</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -4656,7 +4670,7 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="19" t="s">
         <v>190</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4678,14 +4692,14 @@
         <v>22</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K45" s="2"/>
-      <c r="L45" s="17" t="s">
+      <c r="L45" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M45" s="2"/>
@@ -4694,7 +4708,7 @@
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="17"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2" t="s">
         <v>191</v>
       </c>
@@ -4719,16 +4733,16 @@
         <v>26</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="L46" s="17"/>
+        <v>500</v>
+      </c>
+      <c r="L46" s="19"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="17"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="2" t="s">
         <v>192</v>
       </c>
@@ -4749,14 +4763,14 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="17"/>
+      <c r="L47" s="19"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="17"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="2" t="s">
         <v>193</v>
       </c>
@@ -4764,7 +4778,7 @@
         <v>201</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
@@ -4779,16 +4793,16 @@
         <v>26</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="L48" s="17"/>
+        <v>360</v>
+      </c>
+      <c r="L48" s="19"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="17"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="2" t="s">
         <v>211</v>
       </c>
@@ -4796,7 +4810,7 @@
         <v>202</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -4811,14 +4825,14 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="17"/>
+      <c r="L49" s="19"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="17"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="2" t="s">
         <v>194</v>
       </c>
@@ -4843,14 +4857,14 @@
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="17"/>
+      <c r="L50" s="19"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="17"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="2" t="s">
         <v>196</v>
       </c>
@@ -4873,14 +4887,14 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="17"/>
+      <c r="L51" s="19"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="21" t="s">
         <v>215</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -4890,7 +4904,7 @@
         <v>205</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
@@ -4905,7 +4919,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="18" t="s">
+      <c r="L52" s="21" t="s">
         <v>217</v>
       </c>
       <c r="M52" s="3"/>
@@ -4914,7 +4928,7 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="3" t="s">
         <v>208</v>
       </c>
@@ -4937,14 +4951,14 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="18"/>
+      <c r="L53" s="21"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="18"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="3" t="s">
         <v>209</v>
       </c>
@@ -4967,21 +4981,21 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="18"/>
+      <c r="L54" s="21"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>24</v>
@@ -4997,7 +5011,7 @@
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>25</v>
@@ -5010,12 +5024,12 @@
       <c r="P55" s="2"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" s="17"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>24</v>
@@ -5031,7 +5045,7 @@
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -5042,15 +5056,15 @@
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" s="17"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
@@ -5060,7 +5074,7 @@
         <v>22</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -5072,12 +5086,12 @@
       <c r="P57" s="2"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="17"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>57</v>
@@ -5090,7 +5104,7 @@
         <v>22</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -5102,15 +5116,15 @@
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="1:16" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A59" s="17"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
@@ -5120,10 +5134,10 @@
         <v>23</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -5134,12 +5148,12 @@
       <c r="P59" s="2"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="17"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>57</v>
@@ -5153,7 +5167,7 @@
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -5164,12 +5178,12 @@
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A61" s="17"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>252</v>
@@ -5182,10 +5196,10 @@
         <v>22</v>
       </c>
       <c r="H61" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -5196,7 +5210,7 @@
       <c r="P61" s="2"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -5218,23 +5232,23 @@
         <v>22</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3" t="s">
         <v>249</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="L62" s="18"/>
+        <v>479</v>
+      </c>
+      <c r="L62" s="21"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="18"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="3" t="s">
         <v>129</v>
       </c>
@@ -5255,14 +5269,14 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="18"/>
+      <c r="L63" s="21"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" s="18"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="3" t="s">
         <v>119</v>
       </c>
@@ -5280,19 +5294,19 @@
         <v>22</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="18"/>
+      <c r="L64" s="21"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65" s="18"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="3" t="s">
         <v>30</v>
       </c>
@@ -5313,18 +5327,18 @@
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="18"/>
+      <c r="L65" s="21"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66" s="18"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="3" t="s">
         <v>31</v>
       </c>
@@ -5332,7 +5346,7 @@
         <v>36</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
@@ -5345,18 +5359,18 @@
         <v>27</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="18"/>
+      <c r="L66" s="21"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A67" s="18"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="3" t="s">
         <v>32</v>
       </c>
@@ -5377,7 +5391,7 @@
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>26</v>
@@ -5385,22 +5399,22 @@
       <c r="K67" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L67" s="18"/>
+      <c r="L67" s="21"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A68" s="18"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>154</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
@@ -5417,14 +5431,14 @@
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="18"/>
+      <c r="L68" s="21"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -5446,23 +5460,23 @@
         <v>22</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="L69" s="17"/>
+        <v>479</v>
+      </c>
+      <c r="L69" s="19"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70" s="17"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="2" t="s">
         <v>115</v>
       </c>
@@ -5483,14 +5497,14 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="17"/>
+      <c r="L70" s="19"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71" s="17"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="2" t="s">
         <v>114</v>
       </c>
@@ -5508,19 +5522,19 @@
         <v>22</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="17"/>
+      <c r="L71" s="19"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72" s="17"/>
+      <c r="A72" s="19"/>
       <c r="B72" s="2" t="s">
         <v>11</v>
       </c>
@@ -5541,18 +5555,18 @@
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="17"/>
+      <c r="L72" s="19"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73" s="17"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
@@ -5560,7 +5574,7 @@
         <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
@@ -5573,18 +5587,18 @@
         <v>27</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="17"/>
+      <c r="L73" s="19"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74" s="17"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="2" t="s">
         <v>14</v>
       </c>
@@ -5592,7 +5606,7 @@
         <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
@@ -5605,18 +5619,18 @@
         <v>28</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="17"/>
+      <c r="L74" s="19"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A75" s="17"/>
+      <c r="A75" s="19"/>
       <c r="B75" s="2" t="s">
         <v>13</v>
       </c>
@@ -5637,7 +5651,7 @@
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>26</v>
@@ -5645,14 +5659,14 @@
       <c r="K75" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="L75" s="17"/>
+      <c r="L75" s="19"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A76" s="17"/>
+      <c r="A76" s="19"/>
       <c r="B76" s="2" t="s">
         <v>15</v>
       </c>
@@ -5673,18 +5687,18 @@
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="17"/>
+      <c r="L76" s="19"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="1:16" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A77" s="17"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="2" t="s">
         <v>246</v>
       </c>
@@ -5692,7 +5706,7 @@
         <v>172</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
@@ -5709,21 +5723,21 @@
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="17"/>
+      <c r="L77" s="19"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78" s="18" t="s">
-        <v>556</v>
+      <c r="A78" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>24</v>
@@ -5738,25 +5752,25 @@
         <v>22</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3" t="s">
         <v>249</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="L78" s="18"/>
+        <v>479</v>
+      </c>
+      <c r="L78" s="21"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A79" s="18"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>96</v>
@@ -5775,16 +5789,16 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="18"/>
+      <c r="L79" s="21"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80" s="18"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>95</v>
@@ -5800,24 +5814,24 @@
         <v>22</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
-      <c r="L80" s="18"/>
+      <c r="L80" s="21"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="18"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>24</v>
@@ -5833,7 +5847,7 @@
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>26</v>
@@ -5841,19 +5855,19 @@
       <c r="K81" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L81" s="18"/>
+      <c r="L81" s="21"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="18"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>24</v>
@@ -5869,26 +5883,26 @@
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="18"/>
+      <c r="L82" s="21"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A83" s="18"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>467</v>
-      </c>
       <c r="D83" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -5901,25 +5915,25 @@
         <v>174</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="18"/>
+      <c r="L83" s="21"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>24</v>
@@ -5934,25 +5948,25 @@
         <v>22</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
         <v>249</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="L84" s="17"/>
+        <v>479</v>
+      </c>
+      <c r="L84" s="19"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A85" s="17"/>
+      <c r="A85" s="19"/>
       <c r="B85" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>96</v>
@@ -5971,16 +5985,16 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
-      <c r="L85" s="17"/>
+      <c r="L85" s="19"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A86" s="17"/>
+      <c r="A86" s="19"/>
       <c r="B86" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>95</v>
@@ -5996,24 +6010,24 @@
         <v>22</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
-      <c r="L86" s="17"/>
+      <c r="L86" s="19"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A87" s="17"/>
+      <c r="A87" s="19"/>
       <c r="B87" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>24</v>
@@ -6029,26 +6043,26 @@
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
-      <c r="L87" s="17"/>
+      <c r="L87" s="19"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A88" s="17"/>
+      <c r="A88" s="19"/>
       <c r="B88" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
@@ -6058,26 +6072,26 @@
         <v>269</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="17"/>
+      <c r="L88" s="19"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>454</v>
-      </c>
       <c r="C89" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>24</v>
@@ -6092,7 +6106,7 @@
         <v>22</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -6104,9 +6118,9 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A90" s="18"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>96</v>
@@ -6132,9 +6146,9 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A91" s="18"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>95</v>
@@ -6150,7 +6164,7 @@
         <v>22</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -6162,12 +6176,12 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A92" s="18"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>24</v>
@@ -6192,12 +6206,12 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A93" s="18"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>24</v>
@@ -6222,7 +6236,7 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -6251,8 +6265,8 @@
         <v>25</v>
       </c>
       <c r="K94" s="2"/>
-      <c r="L94" s="17" t="s">
-        <v>404</v>
+      <c r="L94" s="19" t="s">
+        <v>403</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -6260,7 +6274,7 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A95" s="16"/>
+      <c r="A95" s="23"/>
       <c r="B95" s="8" t="s">
         <v>63</v>
       </c>
@@ -6268,7 +6282,7 @@
         <v>67</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
@@ -6283,14 +6297,14 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="17"/>
+      <c r="L95" s="19"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A96" s="16"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="8" t="s">
         <v>62</v>
       </c>
@@ -6315,14 +6329,14 @@
         <v>26</v>
       </c>
       <c r="K96" s="2"/>
-      <c r="L96" s="17"/>
+      <c r="L96" s="19"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
     </row>
     <row r="97" spans="1:16" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A97" s="16"/>
+      <c r="A97" s="23"/>
       <c r="B97" s="8" t="s">
         <v>91</v>
       </c>
@@ -6330,7 +6344,7 @@
         <v>100</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
@@ -6345,14 +6359,14 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="17"/>
+      <c r="L97" s="19"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A98" s="16"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="8" t="s">
         <v>117</v>
       </c>
@@ -6375,14 +6389,14 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-      <c r="L98" s="17"/>
+      <c r="L98" s="19"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="1:16" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A99" s="16"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="8" t="s">
         <v>239</v>
       </c>
@@ -6390,7 +6404,7 @@
         <v>238</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
@@ -6403,18 +6417,18 @@
         <v>275</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
-      <c r="L99" s="17"/>
+      <c r="L99" s="19"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -6441,16 +6455,16 @@
         <v>249</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="L100" s="18"/>
+        <v>613</v>
+      </c>
+      <c r="L100" s="21"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A101" s="18"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="3" t="s">
         <v>61</v>
       </c>
@@ -6473,22 +6487,22 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-      <c r="L101" s="18"/>
+      <c r="L101" s="21"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A102" s="18"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3" t="s">
@@ -6501,22 +6515,22 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="L102" s="18"/>
+      <c r="L102" s="21"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A103" s="18"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>221</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3" t="s">
@@ -6529,14 +6543,14 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="18"/>
+      <c r="L103" s="21"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A104" s="18"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="3" t="s">
         <v>116</v>
       </c>
@@ -6544,7 +6558,7 @@
         <v>130</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3" t="s">
@@ -6559,14 +6573,14 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="L104" s="18"/>
+      <c r="L104" s="21"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A105" s="18"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="3" t="s">
         <v>276</v>
       </c>
@@ -6589,22 +6603,22 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
-      <c r="L105" s="18"/>
+      <c r="L105" s="21"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A106" s="18"/>
+      <c r="A106" s="21"/>
       <c r="B106" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -6619,14 +6633,14 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="L106" s="18"/>
+      <c r="L106" s="21"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
     </row>
     <row r="107" spans="1:16" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -6648,21 +6662,21 @@
         <v>22</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K107" s="2"/>
-      <c r="L107" s="19"/>
+      <c r="L107" s="22"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A108" s="17"/>
+      <c r="A108" s="19"/>
       <c r="B108" s="2" t="s">
         <v>132</v>
       </c>
@@ -6687,18 +6701,18 @@
         <v>26</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="L108" s="19"/>
+        <v>320</v>
+      </c>
+      <c r="L108" s="22"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
     </row>
     <row r="109" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="17"/>
+      <c r="A109" s="19"/>
       <c r="B109" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>255</v>
@@ -6719,16 +6733,16 @@
         <v>26</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="L109" s="19"/>
+        <v>500</v>
+      </c>
+      <c r="L109" s="22"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A110" s="17"/>
+      <c r="A110" s="19"/>
       <c r="B110" s="2" t="s">
         <v>135</v>
       </c>
@@ -6746,21 +6760,21 @@
         <v>22</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>264</v>
       </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
-      <c r="L110" s="19"/>
+      <c r="L110" s="22"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A111" s="17"/>
+      <c r="A111" s="19"/>
       <c r="B111" s="2" t="s">
         <v>83</v>
       </c>
@@ -6781,14 +6795,14 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
-      <c r="L111" s="17"/>
+      <c r="L111" s="19"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A112" s="17"/>
+      <c r="A112" s="19"/>
       <c r="B112" s="2" t="s">
         <v>84</v>
       </c>
@@ -6809,22 +6823,22 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
-      <c r="L112" s="17"/>
+      <c r="L112" s="19"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A113" s="17"/>
+      <c r="A113" s="19"/>
       <c r="B113" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
@@ -6834,21 +6848,21 @@
         <v>269</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I113" s="14" t="s">
         <v>181</v>
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
-      <c r="L113" s="17"/>
+      <c r="L113" s="19"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -6875,14 +6889,14 @@
         <v>25</v>
       </c>
       <c r="K114" s="3"/>
-      <c r="L114" s="18"/>
+      <c r="L114" s="21"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A115" s="18"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="3" t="s">
         <v>257</v>
       </c>
@@ -6907,16 +6921,16 @@
         <v>26</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="L115" s="18"/>
+        <v>320</v>
+      </c>
+      <c r="L115" s="21"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A116" s="18"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="3" t="s">
         <v>272</v>
       </c>
@@ -6924,7 +6938,7 @@
         <v>273</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3" t="s">
@@ -6939,14 +6953,14 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
-      <c r="L116" s="18"/>
+      <c r="L116" s="21"/>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A117" s="18"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="3" t="s">
         <v>247</v>
       </c>
@@ -6954,7 +6968,7 @@
         <v>56</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3" t="s">
@@ -6967,25 +6981,25 @@
         <v>182</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
-      <c r="L117" s="18"/>
+      <c r="L117" s="21"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>24</v>
@@ -7000,7 +7014,7 @@
         <v>22</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2" t="s">
@@ -7014,12 +7028,12 @@
       <c r="P118" s="15"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A119" s="17"/>
+      <c r="A119" s="19"/>
       <c r="B119" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>133</v>
@@ -7032,7 +7046,7 @@
         <v>22</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
@@ -7044,15 +7058,15 @@
       <c r="P119" s="15"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A120" s="17"/>
+      <c r="A120" s="19"/>
       <c r="B120" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
@@ -7062,7 +7076,7 @@
         <v>22</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -7074,15 +7088,15 @@
       <c r="P120" s="15"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A121" s="17"/>
+      <c r="A121" s="19"/>
       <c r="B121" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="D121" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2" t="s">
@@ -7092,7 +7106,7 @@
         <v>22</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -7104,12 +7118,12 @@
       <c r="P121" s="15"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A122" s="17"/>
+      <c r="A122" s="19"/>
       <c r="B122" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>24</v>
@@ -7124,14 +7138,14 @@
         <v>22</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L122" s="20"/>
       <c r="M122" s="2"/>
@@ -7140,15 +7154,15 @@
       <c r="P122" s="15"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A123" s="17"/>
+      <c r="A123" s="19"/>
       <c r="B123" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="D123" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
@@ -7158,10 +7172,10 @@
         <v>22</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
@@ -7172,12 +7186,12 @@
       <c r="P123" s="15"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A124" s="17"/>
+      <c r="A124" s="19"/>
       <c r="B124" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>24</v>
@@ -7193,7 +7207,7 @@
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
@@ -7205,30 +7219,7 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="L118:L124"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A69:A77"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="L78:L83"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="L34:L39"/>
-    <mergeCell ref="L45:L51"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="L100:L106"/>
-    <mergeCell ref="L107:L113"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="L69:L77"/>
-    <mergeCell ref="L62:L68"/>
+    <mergeCell ref="A84:A88"/>
     <mergeCell ref="L84:L88"/>
     <mergeCell ref="A94:A99"/>
     <mergeCell ref="L94:L99"/>
@@ -7245,7 +7236,30 @@
     <mergeCell ref="A89:A93"/>
     <mergeCell ref="L55:L61"/>
     <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A69:A77"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="L78:L83"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="L34:L39"/>
+    <mergeCell ref="L45:L51"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="L69:L77"/>
+    <mergeCell ref="L62:L68"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="L118:L124"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="L100:L106"/>
+    <mergeCell ref="L107:L113"/>
+    <mergeCell ref="L114:L117"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7255,9 +7269,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895F9CC6-FBB3-4FA2-9ABF-07B2E9020E78}">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:A68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7320,379 +7336,379 @@
         <v>175</v>
       </c>
       <c r="N1" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>422</v>
-      </c>
     </row>
     <row r="2" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="16">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="24"/>
+      <c r="B3" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
+      <c r="B4" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>524</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="22">
-        <v>20</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22" t="s">
-        <v>526</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-    </row>
-    <row r="5" spans="1:17" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="23">
-        <v>10</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="23">
-        <v>20</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>626</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>629</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>590</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="23">
-        <v>50</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-    </row>
-    <row r="11" spans="1:17" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22" t="s">
+      <c r="B13" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-    </row>
-    <row r="13" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>533</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>219</v>
@@ -7710,7 +7726,7 @@
         <v>22</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -7718,8 +7734,8 @@
         <v>25</v>
       </c>
       <c r="L13" s="8"/>
-      <c r="M13" s="16" t="s">
-        <v>563</v>
+      <c r="M13" s="23" t="s">
+        <v>562</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -7727,9 +7743,9 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>220</v>
@@ -7745,28 +7761,28 @@
         <v>22</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="16"/>
+      <c r="M14" s="23"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="2" t="s">
@@ -7776,7 +7792,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>264</v>
@@ -7784,16 +7800,16 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="16"/>
+      <c r="M15" s="23"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>90</v>
@@ -7812,7 +7828,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8" t="s">
@@ -7821,19 +7837,19 @@
       <c r="L16" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="M16" s="16"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>24</v>
@@ -7852,19 +7868,19 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="16"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>252</v>
@@ -7881,19 +7897,19 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="16"/>
+      <c r="M18" s="23"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>252</v>
@@ -7910,22 +7926,22 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="16"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
@@ -7941,16 +7957,16 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="16"/>
+      <c r="M20" s="23"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>278</v>
@@ -7972,22 +7988,22 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="16"/>
+      <c r="M21" s="23"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -7997,27 +8013,27 @@
         <v>269</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>403</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="16"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>24</v>
@@ -8040,19 +8056,19 @@
       <c r="L23" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="M23" s="16"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>57</v>
@@ -8065,231 +8081,231 @@
         <v>22</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="16"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="16">
+        <v>20</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="16">
+        <v>8</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="24"/>
+      <c r="B27" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="24"/>
+      <c r="B28" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C28" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D28" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="24"/>
+      <c r="B29" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="22">
-        <v>20</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22" t="s">
+      <c r="E29" s="16">
+        <v>10</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" s="24"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="24"/>
+      <c r="B30" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="22">
-        <v>8</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22" t="s">
+      <c r="D30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A31" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-    </row>
-    <row r="28" spans="1:17" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22" t="s">
+      <c r="B31" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="22">
-        <v>10</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="M29" s="21"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-    </row>
-    <row r="31" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>355</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>24</v>
@@ -8305,17 +8321,17 @@
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="16" t="s">
-        <v>381</v>
+      <c r="J31" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>408</v>
+        <v>591</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>407</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -8323,12 +8339,12 @@
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="16"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>24</v>
@@ -8344,102 +8360,102 @@
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="16"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="M32" s="16"/>
+      <c r="M32" s="23"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="16">
+        <v>20</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="24"/>
+      <c r="B34" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="22">
-        <v>20</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="K33" s="22" t="s">
+      <c r="C34" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" s="22" t="s">
+      <c r="L34" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="M34" s="24"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>362</v>
-      </c>
       <c r="C35" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>24</v>
@@ -8455,28 +8471,28 @@
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="16" t="s">
-        <v>381</v>
+      <c r="J35" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M35" s="16"/>
+        <v>324</v>
+      </c>
+      <c r="M35" s="23"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="16"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>252</v>
@@ -8489,28 +8505,28 @@
         <v>22</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I36" s="8"/>
-      <c r="J36" s="16"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="16"/>
+      <c r="M36" s="23"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="16"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
@@ -8521,28 +8537,28 @@
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="M37" s="16"/>
+        <v>411</v>
+      </c>
+      <c r="M37" s="23"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="16"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>24</v>
@@ -8558,28 +8574,28 @@
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="M38" s="16"/>
+        <v>414</v>
+      </c>
+      <c r="M38" s="23"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="16"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>24</v>
@@ -8595,7 +8611,7 @@
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8" t="s">
@@ -8604,19 +8620,19 @@
       <c r="L39" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="M39" s="16"/>
+      <c r="M39" s="23"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="16"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>24</v>
@@ -8632,7 +8648,7 @@
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8" t="s">
@@ -8641,22 +8657,22 @@
       <c r="L40" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="M40" s="16"/>
+      <c r="M40" s="23"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="16"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
@@ -8666,390 +8682,390 @@
         <v>269</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="16"/>
+      <c r="M41" s="23"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="16">
         <v>20</v>
       </c>
-      <c r="F42" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22" t="s">
+      <c r="F42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L42" s="22"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="D43" s="22" t="s">
+      <c r="C43" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="22" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22" t="s">
+      <c r="A44" s="24"/>
+      <c r="B44" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="I44" s="22" t="s">
+      <c r="E44" s="16"/>
+      <c r="F44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="I44" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="24"/>
+      <c r="B45" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D45" s="23" t="s">
+      <c r="C45" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="16">
         <v>10</v>
       </c>
-      <c r="F45" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22" t="s">
+      <c r="F45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="M45" s="21"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
+      <c r="L45" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="M45" s="24"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22" t="s">
+      <c r="A46" s="24"/>
+      <c r="B46" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="3">
         <v>10</v>
       </c>
-      <c r="F46" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="23" t="s">
+      <c r="F46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="I46" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J46" s="23"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="3">
         <v>5</v>
       </c>
-      <c r="F47" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="23" t="s">
+      <c r="F47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="24"/>
+      <c r="B48" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="23" t="s">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="I48" s="23" t="s">
+      <c r="I48" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J48" s="23"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22" t="s">
-        <v>558</v>
-      </c>
-      <c r="C49" s="23" t="s">
+      <c r="A49" s="24"/>
+      <c r="B49" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D49" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="23" t="s">
+      <c r="D49" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H49" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="21"/>
-      <c r="B50" s="23" t="s">
+      <c r="A50" s="24"/>
+      <c r="B50" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="23" t="s">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="21"/>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="24"/>
+      <c r="B51" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="23" t="s">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H51" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="I51" s="23" t="s">
+      <c r="H51" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="J51" s="23"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D52" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="23" t="s">
+      <c r="D52" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H52" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
+      <c r="H52" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
-        <v>417</v>
+      <c r="A53" s="23" t="s">
+        <v>416</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>281</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>24</v>
@@ -9064,7 +9080,7 @@
         <v>22</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -9072,19 +9088,19 @@
         <v>25</v>
       </c>
       <c r="L53" s="8"/>
-      <c r="M53" s="16"/>
+      <c r="M53" s="23"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="16"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="8" t="s">
         <v>280</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>24</v>
@@ -9107,14 +9123,14 @@
       <c r="L54" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="M54" s="16"/>
+      <c r="M54" s="23"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
     <row r="55" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A55" s="16"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="8" t="s">
         <v>291</v>
       </c>
@@ -9132,7 +9148,7 @@
         <v>22</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>298</v>
@@ -9140,14 +9156,14 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
-      <c r="M55" s="16"/>
+      <c r="M55" s="23"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="16"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="8" t="s">
         <v>282</v>
       </c>
@@ -9175,257 +9191,257 @@
       <c r="L56" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="M56" s="16"/>
+      <c r="M56" s="23"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
     <row r="57" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="16">
+        <v>13</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="M57" s="24"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="24"/>
+      <c r="B58" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="16">
+        <v>10</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="M58" s="24"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="24"/>
+      <c r="B59" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A60" s="24"/>
+      <c r="B60" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="24"/>
+      <c r="B61" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="24"/>
+      <c r="B62" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="16">
+        <v>10</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="M62" s="24"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A63" s="24"/>
+      <c r="B63" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A64" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="22">
-        <v>13</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="K57" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L57" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="M57" s="21"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="22">
-        <v>10</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L58" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="M58" s="21"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="I59" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-    </row>
-    <row r="60" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="H60" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I60" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="22">
-        <v>10</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L62" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="M62" s="21"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-    </row>
-    <row r="63" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="I63" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-    </row>
-    <row r="64" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A64" s="16" t="s">
+      <c r="B64" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>289</v>
@@ -9444,8 +9460,8 @@
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="16" t="s">
-        <v>381</v>
+      <c r="J64" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>26</v>
@@ -9453,16 +9469,16 @@
       <c r="L64" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="M64" s="16"/>
+      <c r="M64" s="23"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A65" s="16"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>287</v>
@@ -9481,29 +9497,29 @@
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="16"/>
+      <c r="J65" s="23"/>
       <c r="K65" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="M65" s="16"/>
+      <c r="M65" s="23"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
     <row r="66" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A66" s="16"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>294</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
@@ -9516,100 +9532,100 @@
         <v>305</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
-      <c r="M66" s="16"/>
+      <c r="M66" s="23"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="16">
+        <v>11</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="22" t="s">
+      <c r="M67" s="24"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="24"/>
+      <c r="B68" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="22">
-        <v>11</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="K67" s="22" t="s">
+      <c r="E68" s="16">
+        <v>10</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L67" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="M67" s="21"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="22">
-        <v>10</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L68" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="M68" s="21"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="23"/>
+      <c r="L68" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="M68" s="24"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>24</v>
@@ -9625,28 +9641,30 @@
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="16" t="s">
-        <v>381</v>
+      <c r="J69" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="M69" s="16"/>
+        <v>250</v>
+      </c>
+      <c r="M69" s="23" t="s">
+        <v>631</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A70" s="16"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>24</v>
@@ -9661,111 +9679,113 @@
         <v>22</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I70" s="8"/>
-      <c r="J70" s="16"/>
+      <c r="J70" s="23"/>
       <c r="K70" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="M70" s="16"/>
+        <v>319</v>
+      </c>
+      <c r="M70" s="23"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A71" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D71" s="22" t="s">
+      <c r="A71" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D71" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E71" s="26">
         <v>10</v>
       </c>
-      <c r="F71" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="K71" s="22" t="s">
+      <c r="F71" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="K71" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="L71" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="M71" s="21"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
+      <c r="L71" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="M71" s="25"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="D72" s="22" t="s">
+      <c r="A72" s="25"/>
+      <c r="B72" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D72" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="26">
         <v>10</v>
       </c>
-      <c r="F72" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="22" t="s">
+      <c r="F72" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="I72" s="26"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="L72" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="M72" s="21"/>
-      <c r="N72" s="23"/>
-      <c r="O72" s="23"/>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="23"/>
+      <c r="L72" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="M72" s="25"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
-        <v>322</v>
+      <c r="A73" s="23" t="s">
+        <v>337</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E73" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>22</v>
@@ -9775,30 +9795,28 @@
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
-      <c r="J73" s="16" t="s">
-        <v>381</v>
+      <c r="J73" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M73" s="24" t="s">
-        <v>604</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M73" s="23"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A74" s="16"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="8" t="s">
-        <v>341</v>
+        <v>595</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>24</v>
@@ -9812,444 +9830,452 @@
       <c r="G74" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="24" t="s">
-        <v>323</v>
-      </c>
+      <c r="H74" s="8"/>
       <c r="I74" s="8"/>
-      <c r="J74" s="16"/>
+      <c r="J74" s="23"/>
       <c r="K74" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L74" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="M74" s="25"/>
+      <c r="M74" s="23"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A75" s="16"/>
-      <c r="B75" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D75" s="8" t="s">
+      <c r="A75" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D75" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="26">
+        <v>20</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="K75" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L75" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="M75" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A76" s="25"/>
+      <c r="B76" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="26">
         <v>10</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="16"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8" t="s">
+      <c r="F76" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="I76" s="26"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="L75" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="M75" s="25"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A76" s="21" t="s">
+      <c r="L76" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="M76" s="29"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77" s="25"/>
+      <c r="B77" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="26">
+        <v>10</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" s="25"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L77" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="M77" s="29"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A78" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="8">
+        <v>20</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="M78" s="23"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A79" s="23"/>
+      <c r="B79" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="B76" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="D76" s="22" t="s">
+      <c r="C79" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="22">
-        <v>20</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="K76" s="22" t="s">
+      <c r="E79" s="8">
+        <v>10</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L76" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="M76" s="21"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22" t="s">
+      <c r="L79" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="M79" s="23"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A80" s="23"/>
+      <c r="B80" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C80" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="D77" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="22">
-        <v>10</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="I77" s="22"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L77" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="M77" s="21"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="D78" s="22" t="s">
+      <c r="D80" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="23"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="H79" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="23"/>
-      <c r="P79" s="23"/>
-      <c r="Q79" s="23"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A80" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="8">
-        <v>20</v>
-      </c>
+      <c r="E80" s="8"/>
       <c r="F80" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="8"/>
+      <c r="H80" s="8" t="s">
+        <v>582</v>
+      </c>
       <c r="I80" s="8"/>
-      <c r="J80" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="M80" s="16"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="23"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A81" s="16"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="8" t="s">
-        <v>502</v>
+        <v>579</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="8">
-        <v>10</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" s="8"/>
+        <v>269</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>547</v>
+      </c>
       <c r="I81" s="8"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L81" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="M81" s="16"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="23"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A82" s="16"/>
-      <c r="B82" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="D82" s="8" t="s">
+      <c r="A82" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="26">
+        <v>20</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="K82" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L82" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="M82" s="25"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83" s="25"/>
+      <c r="B83" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="26">
+        <v>10</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L83" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="M83" s="25"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A84" s="25"/>
+      <c r="B84" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="D84" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="8" t="s">
+      <c r="E84" s="26"/>
+      <c r="F84" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A83" s="16"/>
-      <c r="B83" s="8" t="s">
+      <c r="H84" s="26"/>
+      <c r="I84" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A85" s="25"/>
+      <c r="B85" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="8" t="s">
+      <c r="D85" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="H83" s="8" t="s">
+      <c r="H85" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="I85" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="I83" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A84" s="16"/>
-      <c r="B84" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="8" t="s">
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86" s="25"/>
+      <c r="B86" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="H84" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A85" s="21" t="s">
-        <v>598</v>
-      </c>
-      <c r="B85" s="22" t="s">
+      <c r="H86" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="27"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A87" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="L85" s="22"/>
-      <c r="M85" s="21" t="s">
-        <v>605</v>
-      </c>
-      <c r="N85" s="23"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H86" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="23"/>
-      <c r="Q86" s="23"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A87" s="16" t="s">
-        <v>599</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>608</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>24</v>
@@ -10267,11 +10293,11 @@
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L87" s="8"/>
-      <c r="M87" s="16" t="s">
-        <v>605</v>
+      <c r="M87" s="23" t="s">
+        <v>604</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10279,15 +10305,15 @@
       <c r="Q87" s="2"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A88" s="16"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8" t="s">
@@ -10297,118 +10323,164 @@
         <v>23</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
-      <c r="M88" s="16"/>
+      <c r="M88" s="23"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A89" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="C89" s="22" t="s">
+      <c r="A89" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="L89" s="26"/>
+      <c r="M89" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A90" s="25"/>
+      <c r="B90" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A91" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="L89" s="22"/>
-      <c r="M89" s="21" t="s">
-        <v>605</v>
-      </c>
-      <c r="N89" s="23"/>
-      <c r="O89" s="23"/>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="23"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>603</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="22" t="s">
+      <c r="E91" s="8"/>
+      <c r="F91" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="L91" s="8"/>
+      <c r="M91" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A92" s="23"/>
+      <c r="B92" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H90" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="23"/>
-      <c r="O90" s="23"/>
-      <c r="P90" s="23"/>
-      <c r="Q90" s="23"/>
+      <c r="H92" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="M80:M84"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="M64:M66"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="M57:M63"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="A42:A52"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="M42:M52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="M53:M56"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J80:J81"/>
+  <mergeCells count="53">
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J82:J83"/>
     <mergeCell ref="J35:J36"/>
     <mergeCell ref="M2:M12"/>
     <mergeCell ref="A2:A12"/>
@@ -10423,12 +10495,37 @@
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="M35:M41"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="M75:M77"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="M82:M86"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="M57:M63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="M42:M52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="M53:M56"/>
+    <mergeCell ref="M67:M68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Dictionary.xlsx
+++ b/docs/Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Code\Curricular\DataBase\AcademyDBMS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28667D78-D86B-409B-AF70-7DD83D7FD99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6AC593-9ADE-49F1-B73A-853DF65CC724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11100" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -2833,7 +2833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2906,9 +2906,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2918,26 +2917,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3229,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5017,7 +5007,7 @@
         <v>25</v>
       </c>
       <c r="K55" s="2"/>
-      <c r="L55" s="20"/>
+      <c r="L55" s="23"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -5049,7 +5039,7 @@
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="20"/>
+      <c r="L56" s="23"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -5079,7 +5069,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="20"/>
+      <c r="L57" s="23"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -5109,7 +5099,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="20"/>
+      <c r="L58" s="23"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -5141,7 +5131,7 @@
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="20"/>
+      <c r="L59" s="23"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -5171,7 +5161,7 @@
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="20"/>
+      <c r="L60" s="23"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -5203,7 +5193,7 @@
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="20"/>
+      <c r="L61" s="23"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -6236,7 +6226,7 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="20" t="s">
         <v>237</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -6274,7 +6264,7 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A95" s="23"/>
+      <c r="A95" s="20"/>
       <c r="B95" s="8" t="s">
         <v>63</v>
       </c>
@@ -6304,7 +6294,7 @@
       <c r="P95" s="2"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A96" s="23"/>
+      <c r="A96" s="20"/>
       <c r="B96" s="8" t="s">
         <v>62</v>
       </c>
@@ -6336,7 +6326,7 @@
       <c r="P96" s="2"/>
     </row>
     <row r="97" spans="1:16" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A97" s="23"/>
+      <c r="A97" s="20"/>
       <c r="B97" s="8" t="s">
         <v>91</v>
       </c>
@@ -6366,7 +6356,7 @@
       <c r="P97" s="2"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A98" s="23"/>
+      <c r="A98" s="20"/>
       <c r="B98" s="8" t="s">
         <v>117</v>
       </c>
@@ -6396,7 +6386,7 @@
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="1:16" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A99" s="23"/>
+      <c r="A99" s="20"/>
       <c r="B99" s="8" t="s">
         <v>239</v>
       </c>
@@ -7021,7 +7011,7 @@
         <v>25</v>
       </c>
       <c r="K118" s="2"/>
-      <c r="L118" s="20"/>
+      <c r="L118" s="23"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -7051,7 +7041,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
-      <c r="L119" s="20"/>
+      <c r="L119" s="23"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -7081,7 +7071,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
-      <c r="L120" s="20"/>
+      <c r="L120" s="23"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -7111,7 +7101,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
-      <c r="L121" s="20"/>
+      <c r="L121" s="23"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -7147,7 +7137,7 @@
       <c r="K122" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="L122" s="20"/>
+      <c r="L122" s="23"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -7179,7 +7169,7 @@
       </c>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
-      <c r="L123" s="20"/>
+      <c r="L123" s="23"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -7211,7 +7201,7 @@
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="20"/>
+      <c r="L124" s="23"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -7219,6 +7209,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="L118:L124"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="L100:L106"/>
+    <mergeCell ref="L107:L113"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="L45:L51"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="L34:L39"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A69:A77"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="L78:L83"/>
+    <mergeCell ref="L69:L77"/>
+    <mergeCell ref="L62:L68"/>
     <mergeCell ref="A84:A88"/>
     <mergeCell ref="L84:L88"/>
     <mergeCell ref="A94:A99"/>
@@ -7235,31 +7250,6 @@
     <mergeCell ref="L11:L20"/>
     <mergeCell ref="A89:A93"/>
     <mergeCell ref="L55:L61"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A69:A77"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="L78:L83"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="L34:L39"/>
-    <mergeCell ref="L45:L51"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="L69:L77"/>
-    <mergeCell ref="L62:L68"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="L118:L124"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="L100:L106"/>
-    <mergeCell ref="L107:L113"/>
-    <mergeCell ref="L114:L117"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7271,7 +7261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895F9CC6-FBB3-4FA2-9ABF-07B2E9020E78}">
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A67" sqref="A67:A68"/>
     </sheetView>
   </sheetViews>
@@ -7704,7 +7694,7 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>398</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -7734,7 +7724,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="8"/>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="20" t="s">
         <v>562</v>
       </c>
       <c r="N13" s="2"/>
@@ -7743,7 +7733,7 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="8" t="s">
         <v>533</v>
       </c>
@@ -7767,14 +7757,14 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="23"/>
+      <c r="M14" s="20"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
         <v>534</v>
       </c>
@@ -7800,14 +7790,14 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="23"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="8" t="s">
         <v>535</v>
       </c>
@@ -7837,14 +7827,14 @@
       <c r="L16" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="M16" s="23"/>
+      <c r="M16" s="20"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="8" t="s">
         <v>536</v>
       </c>
@@ -7868,14 +7858,14 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="23"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="8" t="s">
         <v>624</v>
       </c>
@@ -7897,14 +7887,14 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="23"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="8" t="s">
         <v>537</v>
       </c>
@@ -7926,14 +7916,14 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="23"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="8" t="s">
         <v>590</v>
       </c>
@@ -7957,14 +7947,14 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="23"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="2" t="s">
         <v>538</v>
       </c>
@@ -7988,14 +7978,14 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="23"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2" t="s">
         <v>539</v>
       </c>
@@ -8021,14 +8011,14 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="23"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="8" t="s">
         <v>540</v>
       </c>
@@ -8056,14 +8046,14 @@
       <c r="L23" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="M23" s="23"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="8" t="s">
         <v>541</v>
       </c>
@@ -8087,7 +8077,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="23"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -8298,7 +8288,7 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="20" t="s">
         <v>371</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -8321,7 +8311,7 @@
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="20" t="s">
         <v>380</v>
       </c>
       <c r="K31" s="8" t="s">
@@ -8330,7 +8320,7 @@
       <c r="L31" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="M31" s="23" t="s">
+      <c r="M31" s="20" t="s">
         <v>407</v>
       </c>
       <c r="N31" s="2"/>
@@ -8339,7 +8329,7 @@
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="8" t="s">
         <v>372</v>
       </c>
@@ -8360,14 +8350,14 @@
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="23"/>
+      <c r="J32" s="20"/>
       <c r="K32" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="M32" s="23"/>
+      <c r="M32" s="20"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -8448,7 +8438,7 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>336</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -8471,7 +8461,7 @@
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="20" t="s">
         <v>380</v>
       </c>
       <c r="K35" s="8" t="s">
@@ -8480,14 +8470,14 @@
       <c r="L35" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="M35" s="23"/>
+      <c r="M35" s="20"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="23"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="8" t="s">
         <v>381</v>
       </c>
@@ -8508,17 +8498,17 @@
         <v>412</v>
       </c>
       <c r="I36" s="8"/>
-      <c r="J36" s="23"/>
+      <c r="J36" s="20"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="23"/>
+      <c r="M36" s="20"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="8" t="s">
         <v>382</v>
       </c>
@@ -8546,14 +8536,14 @@
       <c r="L37" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="M37" s="23"/>
+      <c r="M37" s="20"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="8" t="s">
         <v>394</v>
       </c>
@@ -8583,14 +8573,14 @@
       <c r="L38" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="M38" s="23"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="8" t="s">
         <v>383</v>
       </c>
@@ -8620,14 +8610,14 @@
       <c r="L39" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="M39" s="23"/>
+      <c r="M39" s="20"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="23"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="8" t="s">
         <v>384</v>
       </c>
@@ -8657,14 +8647,14 @@
       <c r="L40" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="M40" s="23"/>
+      <c r="M40" s="20"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="23"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="8" t="s">
         <v>422</v>
       </c>
@@ -8690,7 +8680,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="23"/>
+      <c r="M41" s="20"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -9058,7 +9048,7 @@
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="20" t="s">
         <v>416</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -9088,14 +9078,14 @@
         <v>25</v>
       </c>
       <c r="L53" s="8"/>
-      <c r="M53" s="23"/>
+      <c r="M53" s="20"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="23"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="8" t="s">
         <v>280</v>
       </c>
@@ -9123,14 +9113,14 @@
       <c r="L54" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="M54" s="23"/>
+      <c r="M54" s="20"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
     <row r="55" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A55" s="23"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="8" t="s">
         <v>291</v>
       </c>
@@ -9156,14 +9146,14 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
-      <c r="M55" s="23"/>
+      <c r="M55" s="20"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="23"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="8" t="s">
         <v>282</v>
       </c>
@@ -9191,7 +9181,7 @@
       <c r="L56" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="M56" s="23"/>
+      <c r="M56" s="20"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -9437,7 +9427,7 @@
       <c r="Q63" s="3"/>
     </row>
     <row r="64" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="20" t="s">
         <v>333</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -9460,7 +9450,7 @@
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="23" t="s">
+      <c r="J64" s="20" t="s">
         <v>380</v>
       </c>
       <c r="K64" s="8" t="s">
@@ -9469,14 +9459,14 @@
       <c r="L64" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="M64" s="23"/>
+      <c r="M64" s="20"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A65" s="23"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="8" t="s">
         <v>335</v>
       </c>
@@ -9497,21 +9487,21 @@
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="23"/>
+      <c r="J65" s="20"/>
       <c r="K65" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="M65" s="23"/>
+      <c r="M65" s="20"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
     <row r="66" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A66" s="23"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="8" t="s">
         <v>426</v>
       </c>
@@ -9537,7 +9527,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
-      <c r="M66" s="23"/>
+      <c r="M66" s="20"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -9618,7 +9608,7 @@
       <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="20" t="s">
         <v>630</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -9641,7 +9631,7 @@
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="23" t="s">
+      <c r="J69" s="20" t="s">
         <v>380</v>
       </c>
       <c r="K69" s="8" t="s">
@@ -9650,7 +9640,7 @@
       <c r="L69" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="M69" s="23" t="s">
+      <c r="M69" s="20" t="s">
         <v>631</v>
       </c>
       <c r="N69" s="2"/>
@@ -9659,7 +9649,7 @@
       <c r="Q69" s="2"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A70" s="23"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="8" t="s">
         <v>326</v>
       </c>
@@ -9682,97 +9672,97 @@
         <v>330</v>
       </c>
       <c r="I70" s="8"/>
-      <c r="J70" s="23"/>
+      <c r="J70" s="20"/>
       <c r="K70" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L70" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="M70" s="23"/>
+      <c r="M70" s="20"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="26">
+      <c r="E71" s="16">
         <v>10</v>
       </c>
-      <c r="F71" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="25" t="s">
+      <c r="F71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="K71" s="26" t="s">
+      <c r="K71" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L71" s="26" t="s">
+      <c r="L71" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="M71" s="25"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26" t="s">
+      <c r="A72" s="24"/>
+      <c r="B72" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="26">
+      <c r="E72" s="16">
         <v>10</v>
       </c>
-      <c r="F72" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" s="26" t="s">
+      <c r="F72" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="I72" s="26"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="26" t="s">
+      <c r="I72" s="16"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L72" s="26" t="s">
+      <c r="L72" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="M72" s="25"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="20" t="s">
         <v>337</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -9795,7 +9785,7 @@
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
-      <c r="J73" s="23" t="s">
+      <c r="J73" s="20" t="s">
         <v>380</v>
       </c>
       <c r="K73" s="8" t="s">
@@ -9804,14 +9794,14 @@
       <c r="L73" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="M73" s="23"/>
+      <c r="M73" s="20"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A74" s="23"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="8" t="s">
         <v>595</v>
       </c>
@@ -9832,134 +9822,134 @@
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
-      <c r="J74" s="23"/>
+      <c r="J74" s="20"/>
       <c r="K74" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L74" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="M74" s="23"/>
+      <c r="M74" s="20"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="26">
+      <c r="E75" s="16">
         <v>20</v>
       </c>
-      <c r="F75" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="25" t="s">
+      <c r="F75" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="K75" s="26" t="s">
+      <c r="K75" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L75" s="26" t="s">
+      <c r="L75" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="M75" s="28" t="s">
+      <c r="M75" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="27"/>
-      <c r="Q75" s="27"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A76" s="25"/>
-      <c r="B76" s="26" t="s">
+      <c r="A76" s="24"/>
+      <c r="B76" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="26">
+      <c r="E76" s="16">
         <v>10</v>
       </c>
-      <c r="F76" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H76" s="28" t="s">
+      <c r="F76" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="I76" s="26"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="26" t="s">
+      <c r="I76" s="16"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L76" s="26" t="s">
+      <c r="L76" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="M76" s="29"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="27"/>
-      <c r="Q76" s="27"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A77" s="25"/>
-      <c r="B77" s="26" t="s">
+      <c r="A77" s="24"/>
+      <c r="B77" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="26">
+      <c r="E77" s="16">
         <v>10</v>
       </c>
-      <c r="F77" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" s="25"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26" t="s">
+      <c r="F77" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" s="24"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L77" s="26" t="s">
+      <c r="L77" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="M77" s="29"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="20" t="s">
         <v>576</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -9982,7 +9972,7 @@
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
-      <c r="J78" s="23" t="s">
+      <c r="J78" s="20" t="s">
         <v>380</v>
       </c>
       <c r="K78" s="8" t="s">
@@ -9991,14 +9981,14 @@
       <c r="L78" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="M78" s="23"/>
+      <c r="M78" s="20"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A79" s="23"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="8" t="s">
         <v>577</v>
       </c>
@@ -10021,21 +10011,21 @@
         <v>331</v>
       </c>
       <c r="I79" s="8"/>
-      <c r="J79" s="23"/>
+      <c r="J79" s="20"/>
       <c r="K79" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L79" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="M79" s="23"/>
+      <c r="M79" s="20"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A80" s="23"/>
+      <c r="A80" s="20"/>
       <c r="B80" s="8" t="s">
         <v>578</v>
       </c>
@@ -10059,14 +10049,14 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
-      <c r="M80" s="23"/>
+      <c r="M80" s="20"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A81" s="23"/>
+      <c r="A81" s="20"/>
       <c r="B81" s="8" t="s">
         <v>579</v>
       </c>
@@ -10090,185 +10080,185 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
-      <c r="M81" s="23"/>
+      <c r="M81" s="20"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="26">
+      <c r="E82" s="16">
         <v>20</v>
       </c>
-      <c r="F82" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="25" t="s">
+      <c r="F82" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="K82" s="26" t="s">
+      <c r="K82" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L82" s="26" t="s">
+      <c r="L82" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="M82" s="25"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A83" s="25"/>
-      <c r="B83" s="26" t="s">
+      <c r="A83" s="24"/>
+      <c r="B83" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="26">
+      <c r="E83" s="16">
         <v>10</v>
       </c>
-      <c r="F83" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="26" t="s">
+      <c r="F83" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L83" s="26" t="s">
+      <c r="L83" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="M83" s="25"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A84" s="25"/>
-      <c r="B84" s="26" t="s">
+      <c r="A84" s="24"/>
+      <c r="B84" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="26" t="s">
+      <c r="E84" s="16"/>
+      <c r="F84" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26" t="s">
+      <c r="H84" s="16"/>
+      <c r="I84" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A85" s="25"/>
-      <c r="B85" s="26" t="s">
+      <c r="A85" s="24"/>
+      <c r="B85" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="26" t="s">
+      <c r="E85" s="16"/>
+      <c r="F85" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H85" s="26" t="s">
+      <c r="H85" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="I85" s="26" t="s">
+      <c r="I85" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27"/>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="27"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A86" s="25"/>
-      <c r="B86" s="26" t="s">
+      <c r="A86" s="24"/>
+      <c r="B86" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="26" t="s">
+      <c r="E86" s="16"/>
+      <c r="F86" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H86" s="26" t="s">
+      <c r="H86" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="I86" s="26" t="s">
+      <c r="I86" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="20" t="s">
         <v>597</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -10296,7 +10286,7 @@
         <v>480</v>
       </c>
       <c r="L87" s="8"/>
-      <c r="M87" s="23" t="s">
+      <c r="M87" s="20" t="s">
         <v>604</v>
       </c>
       <c r="N87" s="2"/>
@@ -10305,7 +10295,7 @@
       <c r="Q87" s="2"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A88" s="23"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="8" t="s">
         <v>597</v>
       </c>
@@ -10329,82 +10319,82 @@
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
-      <c r="M88" s="23"/>
+      <c r="M88" s="20"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="D89" s="26" t="s">
+      <c r="D89" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="26" t="s">
+      <c r="E89" s="16"/>
+      <c r="F89" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="26" t="s">
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="L89" s="26"/>
-      <c r="M89" s="25" t="s">
+      <c r="L89" s="16"/>
+      <c r="M89" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A90" s="25"/>
-      <c r="B90" s="26" t="s">
+      <c r="A90" s="24"/>
+      <c r="B90" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="26" t="s">
+      <c r="E90" s="16"/>
+      <c r="F90" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H90" s="26" t="s">
+      <c r="H90" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="25"/>
-      <c r="N90" s="27"/>
-      <c r="O90" s="27"/>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="27"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="20" t="s">
         <v>599</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -10432,7 +10422,7 @@
         <v>480</v>
       </c>
       <c r="L91" s="8"/>
-      <c r="M91" s="23" t="s">
+      <c r="M91" s="20" t="s">
         <v>604</v>
       </c>
       <c r="N91" s="2"/>
@@ -10441,7 +10431,7 @@
       <c r="Q91" s="2"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A92" s="23"/>
+      <c r="A92" s="20"/>
       <c r="B92" s="8" t="s">
         <v>599</v>
       </c>
@@ -10465,7 +10455,7 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
-      <c r="M92" s="23"/>
+      <c r="M92" s="20"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -10473,12 +10463,37 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="M82:M86"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="M57:M63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="M42:M52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="M53:M56"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="M75:M77"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="J73:J74"/>
     <mergeCell ref="J78:J79"/>
     <mergeCell ref="J82:J83"/>
     <mergeCell ref="J35:J36"/>
@@ -10495,37 +10510,12 @@
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="M35:M41"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="M75:M77"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="M82:M86"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="M64:M66"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="M57:M63"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="A42:A52"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="M42:M52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="M53:M56"/>
-    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="M91:M92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
